--- a/設計書/基本設計/タスク管理/タスク検索.xlsx
+++ b/設計書/基本設計/タスク管理/タスク検索.xlsx
@@ -871,14 +871,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task.start_datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task.end_datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task.detail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -915,14 +907,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task.end_datetime &lt;= start_datetime AND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>task.start_datetime &lt;= end_datetime AND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task..detail LIKE '%detail%' AND</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -936,6 +920,22 @@
   </si>
   <si>
     <t>task.progress = 0 or 100 AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task.start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task.end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task.start_date &lt;= end_date AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task.end_date &lt;= start_date AND</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4192,87 +4192,87 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
